--- a/Excel_files/Students.xlsx
+++ b/Excel_files/Students.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Application-Gestion-Note\App_Gestion_Note\Excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjetXML\App-Gestion-Notes\Excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C279A5B-0BEA-4D9D-9329-A91E9CBA32F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFFFE97-C927-43F6-8AA2-C65106A518A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -994,7 +994,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1082,41 +1082,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1401,17 +1398,17 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="7" max="7" width="37.5546875" customWidth="1"/>
     <col min="8" max="8" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>121</v>
       </c>
@@ -1433,12 +1430,13 @@
       <c r="G1" s="13" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>21010395</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="3" t="s">
         <v>257</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1457,11 +1455,11 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>21010278</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="3" t="s">
         <v>258</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1480,11 +1478,11 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>21011326</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="3" t="s">
         <v>259</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1503,11 +1501,11 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>21010358</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="3" t="s">
         <v>260</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1526,11 +1524,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>21010266</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="3" t="s">
         <v>261</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1549,11 +1547,11 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>20001758</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1572,11 +1570,11 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>21010287</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="3" t="s">
         <v>263</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1595,11 +1593,11 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>21010482</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="5" t="s">
         <v>264</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1618,11 +1616,11 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>21009157</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="5" t="s">
         <v>265</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1641,11 +1639,11 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>21010356</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="5" t="s">
         <v>266</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1664,11 +1662,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>21010411</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="5" t="s">
         <v>267</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1687,11 +1685,11 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>21010476</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="5" t="s">
         <v>268</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1710,11 +1708,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>22012817</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="5" t="s">
         <v>269</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1733,11 +1731,11 @@
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>21009110</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="5" t="s">
         <v>270</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1756,11 +1754,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>21011779</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="5" t="s">
         <v>271</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1779,11 +1777,11 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>20011005</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="5" t="s">
         <v>272</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1802,11 +1800,11 @@
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>21002603</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="5" t="s">
         <v>273</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1825,11 +1823,11 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>21010261</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="5" t="s">
         <v>274</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1848,11 +1846,11 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>21011724</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="5" t="s">
         <v>275</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1871,11 +1869,11 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>21009025</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="5" t="s">
         <v>276</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1894,11 +1892,11 @@
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21010326</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="5" t="s">
         <v>277</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1917,11 +1915,11 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21010299</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="5" t="s">
         <v>278</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1940,11 +1938,11 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21009475</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="5" t="s">
         <v>279</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1963,11 +1961,11 @@
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21010439</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="5" t="s">
         <v>280</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1986,11 +1984,11 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>21010403</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="5" t="s">
         <v>281</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -2009,11 +2007,11 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>21010379</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="5" t="s">
         <v>282</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -2032,11 +2030,11 @@
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>21010272</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="5" t="s">
         <v>273</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -2055,11 +2053,11 @@
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>21010324</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="8" t="s">
         <v>283</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -2078,11 +2076,11 @@
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>20007042</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="8" t="s">
         <v>284</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -2101,11 +2099,11 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>21010274</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="8" t="s">
         <v>285</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -2124,11 +2122,11 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>21010319</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="8" t="s">
         <v>286</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -2147,11 +2145,11 @@
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>19006658</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="8" t="s">
         <v>287</v>
       </c>
       <c r="C33" s="8" t="s">
@@ -2170,11 +2168,11 @@
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>21010322</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="8" t="s">
         <v>288</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -2193,11 +2191,11 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>22012491</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="8" t="s">
         <v>289</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -2216,11 +2214,11 @@
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>21010441</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="8" t="s">
         <v>290</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -2239,11 +2237,11 @@
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>21010423</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="8" t="s">
         <v>291</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -2262,11 +2260,11 @@
         <v>226</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>20007896</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="8" t="s">
         <v>292</v>
       </c>
       <c r="C38" s="8" t="s">
@@ -2285,11 +2283,11 @@
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>21011787</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="8" t="s">
         <v>293</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -2308,11 +2306,11 @@
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>21010306</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="8" t="s">
         <v>294</v>
       </c>
       <c r="C40" s="8" t="s">
@@ -2331,11 +2329,11 @@
         <v>229</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>21010320</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="8" t="s">
         <v>295</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -2354,11 +2352,11 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>21010359</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="8" t="s">
         <v>296</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -2377,11 +2375,11 @@
         <v>231</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>21010334</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="8" t="s">
         <v>297</v>
       </c>
       <c r="C43" s="8" t="s">
@@ -2400,11 +2398,11 @@
         <v>232</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>21010011</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C44" s="8" t="s">
@@ -2423,11 +2421,11 @@
         <v>233</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>21010368</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="8" t="s">
         <v>299</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -2446,11 +2444,11 @@
         <v>234</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>20009973</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="8" t="s">
         <v>300</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -2469,11 +2467,11 @@
         <v>235</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>21010231</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="8" t="s">
         <v>301</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -2492,11 +2490,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>21011780</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="8" t="s">
         <v>302</v>
       </c>
       <c r="C48" s="8" t="s">
@@ -2515,11 +2513,11 @@
         <v>237</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>20000927</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="8" t="s">
         <v>303</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -2538,11 +2536,11 @@
         <v>238</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>20000104</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="8" t="s">
         <v>304</v>
       </c>
       <c r="C50" s="8" t="s">
@@ -2561,11 +2559,11 @@
         <v>239</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>21010740</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="8" t="s">
         <v>305</v>
       </c>
       <c r="C51" s="8" t="s">
@@ -2584,11 +2582,11 @@
         <v>240</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>21010291</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="8" t="s">
         <v>306</v>
       </c>
       <c r="C52" s="8" t="s">
@@ -2607,11 +2605,11 @@
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>21011784</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="8" t="s">
         <v>302</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -2630,11 +2628,11 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>21010332</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="8" t="s">
         <v>307</v>
       </c>
       <c r="C54" s="8" t="s">
@@ -2653,11 +2651,11 @@
         <v>243</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>20007695</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="8" t="s">
         <v>308</v>
       </c>
       <c r="C55" s="8" t="s">
@@ -2676,11 +2674,11 @@
         <v>244</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>21010401</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="8" t="s">
         <v>309</v>
       </c>
       <c r="C56" s="8" t="s">
@@ -2699,11 +2697,11 @@
         <v>245</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>21009322</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="8" t="s">
         <v>310</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -2722,11 +2720,11 @@
         <v>246</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>21011667</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="8" t="s">
         <v>311</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -2745,11 +2743,11 @@
         <v>247</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>21010348</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="8" t="s">
         <v>312</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -2768,11 +2766,11 @@
         <v>248</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>21010242</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="8" t="s">
         <v>313</v>
       </c>
       <c r="C60" s="8" t="s">
@@ -2791,11 +2789,11 @@
         <v>249</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>21015477</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="8" t="s">
         <v>314</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -2814,11 +2812,11 @@
         <v>250</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>20001713</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="8" t="s">
         <v>315</v>
       </c>
       <c r="C62" s="8" t="s">
@@ -2837,11 +2835,11 @@
         <v>251</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>21010255</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="8" t="s">
         <v>316</v>
       </c>
       <c r="C63" s="8" t="s">
@@ -2860,11 +2858,11 @@
         <v>252</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>21011615</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="8" t="s">
         <v>317</v>
       </c>
       <c r="C64" s="8" t="s">
@@ -2883,11 +2881,11 @@
         <v>253</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>21010409</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="8" t="s">
         <v>307</v>
       </c>
       <c r="C65" s="8" t="s">
@@ -2906,114 +2904,114 @@
         <v>254</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F66" s="10"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F67" s="10"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F68" s="10"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F69" s="10"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F70" s="10"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F71" s="10"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F72" s="10"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F75" s="10"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F76" s="10"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F77" s="10"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F78" s="10"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F79" s="10"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F80" s="10"/>
     </row>
-    <row r="81" spans="6:6">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F81" s="10"/>
     </row>
-    <row r="82" spans="6:6">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F82" s="10"/>
     </row>
-    <row r="83" spans="6:6">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F83" s="10"/>
     </row>
-    <row r="84" spans="6:6">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F84" s="10"/>
     </row>
-    <row r="85" spans="6:6">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F85" s="10"/>
     </row>
-    <row r="86" spans="6:6">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F86" s="10"/>
     </row>
-    <row r="87" spans="6:6">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="6:6">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F88" s="10"/>
     </row>
-    <row r="89" spans="6:6">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F89" s="10"/>
     </row>
-    <row r="90" spans="6:6">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F90" s="10"/>
     </row>
-    <row r="91" spans="6:6">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F91" s="10"/>
     </row>
-    <row r="92" spans="6:6">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F92" s="10"/>
     </row>
-    <row r="93" spans="6:6">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="6:6">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F94" s="10"/>
     </row>
-    <row r="95" spans="6:6">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F95" s="10"/>
     </row>
-    <row r="96" spans="6:6">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F96" s="10"/>
     </row>
-    <row r="97" spans="6:6">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F97" s="10"/>
     </row>
   </sheetData>
